--- a/ELM/Pohor/AnalogoveDigitalniPrevodnik/ELM_Mereni.xlsx
+++ b/ELM/Pohor/AnalogoveDigitalniPrevodnik/ELM_Mereni.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\School\ELM\Pohor\AnalogoveDigitalniPrevodnik\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\ELM\Pohor\AnalogoveDigitalniPrevodnik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{0EC1BD23-B1D4-4E97-9D5D-32CA3F17754C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D26B21-7730-470F-A29F-B882DE04463D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15750" activeTab="3" xr2:uid="{8A85DCE3-DB18-45CC-ADD1-5D991AAD4BD6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{8A85DCE3-DB18-45CC-ADD1-5D991AAD4BD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>SŠPTA Jihlava
 třída Legionářů 3, Jihlava</t>
@@ -144,6 +144,124 @@
     </r>
   </si>
   <si>
+    <t>1. Teoretický rozbor</t>
+  </si>
+  <si>
+    <t>2. Použité přístroje a pomůcky</t>
+  </si>
+  <si>
+    <t>Přístroj</t>
+  </si>
+  <si>
+    <t>Inv číslo</t>
+  </si>
+  <si>
+    <t>Systém</t>
+  </si>
+  <si>
+    <t>Rozsah</t>
+  </si>
+  <si>
+    <t>Ostatní údaje</t>
+  </si>
+  <si>
+    <t>3. Schéma zapojení</t>
+  </si>
+  <si>
+    <t>4. Postup při měření</t>
+  </si>
+  <si>
+    <t>5. Naměřené a vypočítané hodnoty</t>
+  </si>
+  <si>
+    <t>6. Příklad výpočtu</t>
+  </si>
+  <si>
+    <t>7. Grafy a obrázky</t>
+  </si>
+  <si>
+    <t>7. Zhodnocení - závěr</t>
+  </si>
+  <si>
+    <t>Stav</t>
+  </si>
+  <si>
+    <t>α</t>
+  </si>
+  <si>
+    <t>0 - 10V</t>
+  </si>
+  <si>
+    <t>-5 - 5V</t>
+  </si>
+  <si>
+    <t>Dekáda</t>
+  </si>
+  <si>
+    <t>Voltmetr</t>
+  </si>
+  <si>
+    <t>Převodník</t>
+  </si>
+  <si>
+    <t>ES 939</t>
+  </si>
+  <si>
+    <t>ES1 1099</t>
+  </si>
+  <si>
+    <t>ES 902</t>
+  </si>
+  <si>
+    <t>Analogový</t>
+  </si>
+  <si>
+    <t>Digitální</t>
+  </si>
+  <si>
+    <t>1000V</t>
+  </si>
+  <si>
+    <t>Analogově-digitální převodník převádí analogový signál na digitální hodnotu, kterou mohou zpracovávat digitální zařízení</t>
+  </si>
+  <si>
+    <t>Ověření činnosti analogově-digitálního převodníku</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Datum měření:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11. 2. 2025</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -166,29 +284,15 @@
       <t xml:space="preserve">
 </t>
     </r>
-  </si>
-  <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="14"/>
+        <sz val="20"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Datum měření:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
+      <t>25. 2. 2025</t>
     </r>
   </si>
   <si>
@@ -214,6 +318,16 @@
       <t xml:space="preserve">
 </t>
     </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>21</t>
+    </r>
   </si>
   <si>
     <r>
@@ -238,6 +352,16 @@
       <t xml:space="preserve">
 </t>
     </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1020hPa</t>
+    </r>
   </si>
   <si>
     <r>
@@ -262,94 +386,44 @@
       <t xml:space="preserve">
 </t>
     </r>
-  </si>
-  <si>
-    <t>1. Teoretický rozbor</t>
-  </si>
-  <si>
-    <t>2. Použité přístroje a pomůcky</t>
-  </si>
-  <si>
-    <t>Přístroj</t>
-  </si>
-  <si>
-    <t>Inv číslo</t>
-  </si>
-  <si>
-    <t>Systém</t>
-  </si>
-  <si>
-    <t>Rozsah</t>
-  </si>
-  <si>
-    <t>Ostatní údaje</t>
-  </si>
-  <si>
-    <t>3. Schéma zapojení</t>
-  </si>
-  <si>
-    <t>4. Postup při měření</t>
-  </si>
-  <si>
-    <t>5. Naměřené a vypočítané hodnoty</t>
-  </si>
-  <si>
-    <t>6. Příklad výpočtu</t>
-  </si>
-  <si>
-    <t>7. Grafy a obrázky</t>
-  </si>
-  <si>
-    <t>7. Zhodnocení - závěr</t>
-  </si>
-  <si>
-    <t>Stav</t>
-  </si>
-  <si>
-    <t>α</t>
-  </si>
-  <si>
-    <t>0 - 10V</t>
-  </si>
-  <si>
-    <t>-5 - 5V</t>
-  </si>
-  <si>
-    <t>Dekáda</t>
-  </si>
-  <si>
-    <t>Voltmetr</t>
-  </si>
-  <si>
-    <t>Převodník</t>
-  </si>
-  <si>
-    <t>ES 939</t>
-  </si>
-  <si>
-    <t>ES1 1099</t>
-  </si>
-  <si>
-    <t>ES 902</t>
-  </si>
-  <si>
-    <t>Analogový</t>
-  </si>
-  <si>
-    <t>Digitální</t>
-  </si>
-  <si>
-    <t>1000V</t>
-  </si>
-  <si>
-    <t>Analogově číslicový převodník</t>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>67%</t>
+    </r>
+  </si>
+  <si>
+    <t>Náš obvod vykazoval měřicí chyby, které vedly k nedostatečné přesnosti</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Zapojili jsme obvod dle schématu.
+Nastavili jsme rozsah napětí na 10V.
+Vypočítali jsme </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>∆U pro každý stav.
+Nastavili jsme rozsah napětí na ±5.
+Vypočítali jsme ∆U pro každý stav.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,6 +470,19 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -579,7 +666,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -610,6 +697,78 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -619,6 +778,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -628,62 +802,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -694,42 +829,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -739,17 +838,11 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1088,8 +1181,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C3:S32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="A7" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,122 +1220,122 @@
     </row>
     <row r="7" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="29"/>
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="4"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="31"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="32"/>
       <c r="S8" s="5"/>
     </row>
     <row r="9" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="29"/>
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="4"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="31"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="32"/>
       <c r="S10" s="5"/>
     </row>
     <row r="11" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
-      <c r="D11" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="35"/>
+      <c r="D11" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="36"/>
       <c r="S11" s="5"/>
     </row>
     <row r="12" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="4"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="38"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="39"/>
       <c r="S12" s="5"/>
     </row>
     <row r="13" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1277,18 +1370,18 @@
         <f>_xlfn.CONCAT(_xlfn.VALUETOTEXT(1,0), ".")</f>
         <v>1.</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
     </row>
@@ -1299,18 +1392,18 @@
         <f>_xlfn.CONCAT(_xlfn.VALUETOTEXT(2,0), ".")</f>
         <v>2.</v>
       </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
     </row>
@@ -1321,18 +1414,18 @@
         <f>_xlfn.CONCAT(_xlfn.VALUETOTEXT(3,0), ".")</f>
         <v>3.</v>
       </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
     </row>
@@ -1343,18 +1436,18 @@
         <f>_xlfn.CONCAT(_xlfn.VALUETOTEXT(4,0), ".")</f>
         <v>4.</v>
       </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
     </row>
@@ -1365,18 +1458,18 @@
         <f>_xlfn.CONCAT(_xlfn.VALUETOTEXT(5,0), ".")</f>
         <v>5.</v>
       </c>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
     </row>
@@ -1394,134 +1487,134 @@
     </row>
     <row r="22" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="16" t="s">
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="16" t="s">
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="18"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="42"/>
       <c r="S22" s="5"/>
     </row>
     <row r="23" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="4"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="24"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="45"/>
       <c r="S23" s="5"/>
     </row>
     <row r="24" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
-      <c r="D24" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="16" t="s">
+      <c r="D24" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="18"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="42"/>
       <c r="S24" s="5"/>
     </row>
     <row r="25" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="4"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="21"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="50"/>
       <c r="S25" s="5"/>
     </row>
     <row r="26" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
-      <c r="D26" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="18"/>
+      <c r="D26" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="42"/>
       <c r="S26" s="5"/>
     </row>
     <row r="27" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="4"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="24"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="45"/>
       <c r="S27" s="5"/>
     </row>
     <row r="28" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1585,6 +1678,12 @@
     <row r="32" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D24:H25"/>
+    <mergeCell ref="I24:M25"/>
+    <mergeCell ref="N24:R25"/>
+    <mergeCell ref="D26:H27"/>
+    <mergeCell ref="I26:M27"/>
+    <mergeCell ref="N26:R27"/>
     <mergeCell ref="D7:R8"/>
     <mergeCell ref="D9:R10"/>
     <mergeCell ref="D11:R12"/>
@@ -1596,12 +1695,6 @@
     <mergeCell ref="F17:Q17"/>
     <mergeCell ref="F18:Q18"/>
     <mergeCell ref="F19:Q19"/>
-    <mergeCell ref="D24:H25"/>
-    <mergeCell ref="I24:M25"/>
-    <mergeCell ref="N24:R25"/>
-    <mergeCell ref="D26:H27"/>
-    <mergeCell ref="I26:M27"/>
-    <mergeCell ref="N26:R27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1613,8 +1706,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="C3:S32"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:R11"/>
+    <sheetView topLeftCell="A13" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,23 +1737,23 @@
     </row>
     <row r="5" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="4"/>
-      <c r="D5" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
+      <c r="D5" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
       <c r="S5" s="5"/>
     </row>
     <row r="6" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1684,97 +1777,99 @@
     </row>
     <row r="7" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
+      <c r="D7" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
       <c r="S8" s="5"/>
     </row>
     <row r="9" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
       <c r="S10" s="5"/>
     </row>
     <row r="11" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
       <c r="S11" s="5"/>
     </row>
     <row r="12" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1783,23 +1878,23 @@
     </row>
     <row r="13" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
-      <c r="D13" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
+      <c r="D13" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
       <c r="S13" s="5"/>
     </row>
     <row r="14" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1821,131 +1916,131 @@
     </row>
     <row r="15" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="4"/>
-      <c r="D15" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="44"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="N15" s="44"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="45"/>
+      <c r="D15" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="52"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="52"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="52"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="53"/>
       <c r="S15" s="5"/>
     </row>
     <row r="16" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
-      <c r="D16" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="K16" s="42"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="43"/>
+      <c r="D16" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="58"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="58"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="58"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="59"/>
       <c r="S16" s="5"/>
     </row>
     <row r="17" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
-      <c r="D17" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="42"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17" s="42"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="N17" s="42"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="43"/>
+      <c r="D17" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="58"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="58"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="58"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="58"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="59"/>
       <c r="S17" s="5"/>
     </row>
     <row r="18" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="4"/>
-      <c r="D18" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="K18" s="42"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="43"/>
+      <c r="D18" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="58"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="58"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="59"/>
       <c r="S18" s="5"/>
     </row>
     <row r="19" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="4"/>
-      <c r="D19" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="K19" s="42"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="43"/>
+      <c r="D19" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="58"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="58"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="58"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="59"/>
       <c r="S19" s="5"/>
     </row>
     <row r="20" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1954,23 +2049,23 @@
     </row>
     <row r="21" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
-      <c r="D21" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
+      <c r="D21" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
       <c r="S21" s="5"/>
     </row>
     <row r="22" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1994,135 +2089,135 @@
     </row>
     <row r="23" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
       <c r="S23" s="5"/>
     </row>
     <row r="24" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="47"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
       <c r="S24" s="5"/>
     </row>
     <row r="25" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="4"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
       <c r="S25" s="5"/>
     </row>
     <row r="26" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55"/>
       <c r="S26" s="5"/>
     </row>
     <row r="27" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
       <c r="S27" s="5"/>
     </row>
     <row r="28" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
       <c r="S28" s="5"/>
     </row>
     <row r="29" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="4"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="47"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
       <c r="S29" s="5"/>
     </row>
     <row r="30" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2148,6 +2243,20 @@
     <row r="32" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:R18"/>
     <mergeCell ref="P15:R15"/>
     <mergeCell ref="D21:R21"/>
     <mergeCell ref="D23:R29"/>
@@ -2164,20 +2273,6 @@
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="P16:R16"/>
     <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2189,8 +2284,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="C3:S32"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="54" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2220,23 +2315,23 @@
     </row>
     <row r="5" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="4"/>
-      <c r="D5" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
+      <c r="D5" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
       <c r="S5" s="5"/>
     </row>
     <row r="6" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -2260,192 +2355,194 @@
     </row>
     <row r="7" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
+      <c r="D7" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
       <c r="S8" s="5"/>
     </row>
     <row r="9" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
       <c r="S10" s="5"/>
     </row>
     <row r="11" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
       <c r="S11" s="5"/>
     </row>
     <row r="12" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="4"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
       <c r="S12" s="5"/>
     </row>
     <row r="13" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
       <c r="S13" s="5"/>
     </row>
     <row r="14" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
       <c r="S14" s="5"/>
     </row>
     <row r="15" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
       <c r="S15" s="5"/>
     </row>
     <row r="16" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
       <c r="S16" s="5"/>
     </row>
     <row r="17" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -2455,23 +2552,23 @@
     </row>
     <row r="18" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
-      <c r="D18" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
+      <c r="D18" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
       <c r="S18" s="5"/>
     </row>
     <row r="19" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -2497,16 +2594,16 @@
     </row>
     <row r="21" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="4"/>
-      <c r="E21" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="45"/>
+      <c r="E21" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="53"/>
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
@@ -2517,28 +2614,28 @@
     </row>
     <row r="22" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
-      <c r="E22" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="49">
+      <c r="E22" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="16">
         <v>1</v>
       </c>
-      <c r="G22" s="49">
+      <c r="G22" s="16">
         <v>2</v>
       </c>
-      <c r="H22" s="49">
+      <c r="H22" s="16">
         <v>3</v>
       </c>
-      <c r="I22" s="49">
+      <c r="I22" s="16">
         <v>4</v>
       </c>
-      <c r="J22" s="50">
+      <c r="J22" s="17">
         <v>5</v>
       </c>
-      <c r="K22" s="49">
+      <c r="K22" s="16">
         <v>6</v>
       </c>
-      <c r="L22" s="51">
+      <c r="L22" s="18">
         <v>7</v>
       </c>
       <c r="M22" s="11"/>
@@ -2551,28 +2648,28 @@
     </row>
     <row r="23" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="4"/>
-      <c r="E23" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="52">
+      <c r="E23" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="19">
         <v>0.04</v>
       </c>
-      <c r="G23" s="52">
+      <c r="G23" s="19">
         <v>0.04</v>
       </c>
-      <c r="H23" s="52">
+      <c r="H23" s="19">
         <v>0</v>
       </c>
-      <c r="I23" s="52">
+      <c r="I23" s="19">
         <v>-0.03</v>
       </c>
-      <c r="J23" s="52">
+      <c r="J23" s="19">
         <v>-0.2</v>
       </c>
-      <c r="K23" s="52">
+      <c r="K23" s="19">
         <v>0.11</v>
       </c>
-      <c r="L23" s="53">
+      <c r="L23" s="20">
         <v>0</v>
       </c>
       <c r="M23" s="11"/>
@@ -2595,16 +2692,16 @@
     </row>
     <row r="25" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="4"/>
-      <c r="E25" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="58"/>
+      <c r="E25" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="62"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
@@ -2615,28 +2712,28 @@
     </row>
     <row r="26" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="4"/>
-      <c r="E26" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="60">
+      <c r="E26" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="24">
         <v>1</v>
       </c>
-      <c r="G26" s="60">
+      <c r="G26" s="24">
         <v>2</v>
       </c>
-      <c r="H26" s="60">
+      <c r="H26" s="24">
         <v>3</v>
       </c>
-      <c r="I26" s="60">
+      <c r="I26" s="24">
         <v>4</v>
       </c>
-      <c r="J26" s="60">
+      <c r="J26" s="24">
         <v>5</v>
       </c>
-      <c r="K26" s="60">
+      <c r="K26" s="24">
         <v>6</v>
       </c>
-      <c r="L26" s="61">
+      <c r="L26" s="25">
         <v>7</v>
       </c>
       <c r="M26" s="11"/>
@@ -2649,28 +2746,28 @@
     </row>
     <row r="27" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="4"/>
-      <c r="E27" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="52">
+      <c r="E27" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="19">
         <v>0.03</v>
       </c>
-      <c r="G27" s="52">
+      <c r="G27" s="19">
         <v>0.02</v>
       </c>
-      <c r="H27" s="52">
+      <c r="H27" s="19">
         <v>0</v>
       </c>
-      <c r="I27" s="52">
+      <c r="I27" s="19">
         <v>0</v>
       </c>
-      <c r="J27" s="52">
+      <c r="J27" s="19">
         <v>-0.01</v>
       </c>
-      <c r="K27" s="52">
+      <c r="K27" s="19">
         <v>-0.01</v>
       </c>
-      <c r="L27" s="53">
+      <c r="L27" s="20">
         <v>0</v>
       </c>
       <c r="M27" s="11"/>
@@ -2742,7 +2839,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="C3:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="D7" sqref="D7:R9"/>
     </sheetView>
   </sheetViews>
@@ -2773,23 +2870,23 @@
     </row>
     <row r="5" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="4"/>
-      <c r="D5" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
+      <c r="D5" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
       <c r="S5" s="5"/>
     </row>
     <row r="6" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -2813,59 +2910,59 @@
     </row>
     <row r="7" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
       <c r="S8" s="5"/>
     </row>
     <row r="9" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -2889,23 +2986,23 @@
     </row>
     <row r="11" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
-      <c r="D11" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
+      <c r="D11" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
       <c r="S11" s="5"/>
     </row>
     <row r="12" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -2914,173 +3011,173 @@
     </row>
     <row r="13" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
       <c r="S13" s="5"/>
     </row>
     <row r="14" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
       <c r="S14" s="5"/>
     </row>
     <row r="15" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
       <c r="S15" s="5"/>
     </row>
     <row r="16" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
       <c r="S16" s="5"/>
     </row>
     <row r="17" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
       <c r="S17" s="5"/>
     </row>
     <row r="18" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
       <c r="S18" s="5"/>
     </row>
     <row r="19" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
       <c r="S19" s="5"/>
     </row>
     <row r="20" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
       <c r="S20" s="5"/>
     </row>
     <row r="21" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
       <c r="S21" s="5"/>
     </row>
     <row r="22" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3089,23 +3186,23 @@
     </row>
     <row r="23" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
-      <c r="D23" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
+      <c r="D23" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
       <c r="S23" s="5"/>
     </row>
     <row r="24" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3129,97 +3226,99 @@
     </row>
     <row r="25" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="4"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47"/>
+      <c r="D25" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
       <c r="S25" s="5"/>
     </row>
     <row r="26" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55"/>
       <c r="S26" s="5"/>
     </row>
     <row r="27" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
       <c r="S27" s="5"/>
     </row>
     <row r="28" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
       <c r="S28" s="5"/>
     </row>
     <row r="29" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="4"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="47"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
       <c r="S29" s="5"/>
     </row>
     <row r="30" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/ELM/Pohor/AnalogoveDigitalniPrevodnik/ELM_Mereni.xlsx
+++ b/ELM/Pohor/AnalogoveDigitalniPrevodnik/ELM_Mereni.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\ELM\Pohor\AnalogoveDigitalniPrevodnik\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\School\ELM\Pohor\AnalogoveDigitalniPrevodnik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D26B21-7730-470F-A29F-B882DE04463D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FA681A-0512-43AF-B964-7AF4191F938E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{8A85DCE3-DB18-45CC-ADD1-5D991AAD4BD6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15750" activeTab="2" xr2:uid="{8A85DCE3-DB18-45CC-ADD1-5D991AAD4BD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>SŠPTA Jihlava
 třída Legionářů 3, Jihlava</t>
@@ -418,12 +418,34 @@
 Vypočítali jsme ∆U pro každý stav.</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ref</t>
+    </r>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,6 +509,14 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -496,7 +526,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -662,11 +692,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -697,38 +738,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -769,41 +831,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -817,32 +858,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1220,122 +1279,122 @@
     </row>
     <row r="7" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="29"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="36"/>
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="4"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="32"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="39"/>
       <c r="S8" s="5"/>
     </row>
     <row r="9" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="29"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="36"/>
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="4"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="32"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="39"/>
       <c r="S10" s="5"/>
     </row>
     <row r="11" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="36"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="43"/>
       <c r="S11" s="5"/>
     </row>
     <row r="12" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="4"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="39"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="46"/>
       <c r="S12" s="5"/>
     </row>
     <row r="13" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1370,18 +1429,18 @@
         <f>_xlfn.CONCAT(_xlfn.VALUETOTEXT(1,0), ".")</f>
         <v>1.</v>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
     </row>
@@ -1392,18 +1451,18 @@
         <f>_xlfn.CONCAT(_xlfn.VALUETOTEXT(2,0), ".")</f>
         <v>2.</v>
       </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
     </row>
@@ -1414,18 +1473,18 @@
         <f>_xlfn.CONCAT(_xlfn.VALUETOTEXT(3,0), ".")</f>
         <v>3.</v>
       </c>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
     </row>
@@ -1436,18 +1495,18 @@
         <f>_xlfn.CONCAT(_xlfn.VALUETOTEXT(4,0), ".")</f>
         <v>4.</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
     </row>
@@ -1458,18 +1517,18 @@
         <f>_xlfn.CONCAT(_xlfn.VALUETOTEXT(5,0), ".")</f>
         <v>5.</v>
       </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
     </row>
@@ -1487,134 +1546,134 @@
     </row>
     <row r="22" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="40" t="s">
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="40" t="s">
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="42"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="26"/>
       <c r="S22" s="5"/>
     </row>
     <row r="23" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="4"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="45"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="32"/>
       <c r="S23" s="5"/>
     </row>
     <row r="24" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
-      <c r="D24" s="40" t="s">
+      <c r="D24" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="40" t="s">
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="40" t="s">
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="42"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="26"/>
       <c r="S24" s="5"/>
     </row>
     <row r="25" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="4"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="50"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="29"/>
       <c r="S25" s="5"/>
     </row>
     <row r="26" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="40" t="s">
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="51" t="s">
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="42"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="26"/>
       <c r="S26" s="5"/>
     </row>
     <row r="27" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="4"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="45"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="32"/>
       <c r="S27" s="5"/>
     </row>
     <row r="28" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1678,12 +1737,6 @@
     <row r="32" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D24:H25"/>
-    <mergeCell ref="I24:M25"/>
-    <mergeCell ref="N24:R25"/>
-    <mergeCell ref="D26:H27"/>
-    <mergeCell ref="I26:M27"/>
-    <mergeCell ref="N26:R27"/>
     <mergeCell ref="D7:R8"/>
     <mergeCell ref="D9:R10"/>
     <mergeCell ref="D11:R12"/>
@@ -1695,6 +1748,12 @@
     <mergeCell ref="F17:Q17"/>
     <mergeCell ref="F18:Q18"/>
     <mergeCell ref="F19:Q19"/>
+    <mergeCell ref="D24:H25"/>
+    <mergeCell ref="I24:M25"/>
+    <mergeCell ref="N24:R25"/>
+    <mergeCell ref="D26:H27"/>
+    <mergeCell ref="I26:M27"/>
+    <mergeCell ref="N26:R27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1777,99 +1836,99 @@
     </row>
     <row r="7" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="63"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
       <c r="S8" s="5"/>
     </row>
     <row r="9" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="63"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
       <c r="S10" s="5"/>
     </row>
     <row r="11" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="63"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
       <c r="S11" s="5"/>
     </row>
     <row r="12" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1916,12 +1975,12 @@
     </row>
     <row r="15" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="4"/>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="58" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="52"/>
       <c r="F15" s="53"/>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="58" t="s">
         <v>9</v>
       </c>
       <c r="H15" s="52"/>
@@ -1931,7 +1990,7 @@
       </c>
       <c r="K15" s="52"/>
       <c r="L15" s="52"/>
-      <c r="M15" s="56" t="s">
+      <c r="M15" s="58" t="s">
         <v>11</v>
       </c>
       <c r="N15" s="52"/>
@@ -1945,102 +2004,102 @@
     </row>
     <row r="16" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="57" t="s">
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="58"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="57" t="s">
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="58"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="59"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="51"/>
       <c r="S16" s="5"/>
     </row>
     <row r="17" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="57" t="s">
+      <c r="E17" s="50"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="58"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="57" t="s">
+      <c r="H17" s="50"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="58"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="57" t="s">
+      <c r="K17" s="50"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="N17" s="58"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="59"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="51"/>
       <c r="S17" s="5"/>
     </row>
     <row r="18" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="4"/>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="58"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="57" t="s">
+      <c r="E18" s="50"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="58"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="59"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="51"/>
       <c r="S18" s="5"/>
     </row>
     <row r="19" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="4"/>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="57" t="s">
+      <c r="E19" s="50"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="58"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="57" t="s">
+      <c r="H19" s="50"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="K19" s="58"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="59"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="51"/>
       <c r="S19" s="5"/>
     </row>
     <row r="20" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -2243,20 +2302,6 @@
     <row r="32" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:R18"/>
     <mergeCell ref="P15:R15"/>
     <mergeCell ref="D21:R21"/>
     <mergeCell ref="D23:R29"/>
@@ -2273,6 +2318,20 @@
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="P16:R16"/>
     <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2282,10 +2341,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A5E5D0-C1B0-4DE2-A6A2-85B9FBDA7C21}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="C3:S32"/>
+  <dimension ref="C3:AB32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView tabSelected="1" topLeftCell="R19" zoomScale="112" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="AA24" sqref="AA24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2355,7 +2414,7 @@
     </row>
     <row r="7" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="56" t="s">
         <v>40</v>
       </c>
       <c r="E7" s="55"/>
@@ -2545,12 +2604,12 @@
       <c r="R16" s="55"/>
       <c r="S16" s="5"/>
     </row>
-    <row r="17" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
       <c r="E17" s="9"/>
       <c r="S17" s="5"/>
     </row>
-    <row r="18" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
       <c r="D18" s="54" t="s">
         <v>15</v>
@@ -2571,7 +2630,7 @@
       <c r="R18" s="54"/>
       <c r="S18" s="5"/>
     </row>
-    <row r="19" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
@@ -2588,13 +2647,13 @@
       <c r="Q19" s="10"/>
       <c r="S19" s="5"/>
     </row>
-    <row r="20" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:28" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="4"/>
       <c r="S20" s="5"/>
     </row>
-    <row r="21" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:28" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="4"/>
-      <c r="E21" s="56" t="s">
+      <c r="E21" s="58" t="s">
         <v>21</v>
       </c>
       <c r="F21" s="52"/>
@@ -2611,31 +2670,41 @@
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
       <c r="S21" s="5"/>
-    </row>
-    <row r="22" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U21" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="V21" s="60"/>
+      <c r="W21" s="60"/>
+      <c r="X21" s="60"/>
+      <c r="Y21" s="60"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="60"/>
+      <c r="AB21" s="61"/>
+    </row>
+    <row r="22" spans="3:28" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="4"/>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="65">
         <v>1</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="65">
         <v>2</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="65">
         <v>3</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="65">
         <v>4</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="66">
         <v>5</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K22" s="65">
         <v>6</v>
       </c>
-      <c r="L22" s="18">
+      <c r="L22" s="67">
         <v>7</v>
       </c>
       <c r="M22" s="11"/>
@@ -2645,31 +2714,55 @@
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
       <c r="S22" s="5"/>
-    </row>
-    <row r="23" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U22" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="V22" s="21">
+        <v>1</v>
+      </c>
+      <c r="W22" s="21">
+        <v>2</v>
+      </c>
+      <c r="X22" s="21">
+        <v>3</v>
+      </c>
+      <c r="Y22" s="21">
+        <v>4</v>
+      </c>
+      <c r="Z22" s="21">
+        <v>5</v>
+      </c>
+      <c r="AA22" s="21">
+        <v>6</v>
+      </c>
+      <c r="AB22" s="22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
-      <c r="E23" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="19">
-        <v>0.04</v>
-      </c>
-      <c r="G23" s="19">
-        <v>0.04</v>
-      </c>
-      <c r="H23" s="19">
-        <v>0</v>
-      </c>
-      <c r="I23" s="19">
-        <v>-0.03</v>
-      </c>
-      <c r="J23" s="19">
-        <v>-0.2</v>
-      </c>
-      <c r="K23" s="19">
-        <v>0.11</v>
-      </c>
-      <c r="L23" s="20">
+      <c r="E23" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="62">
+        <v>9.9610000000000003</v>
+      </c>
+      <c r="G23" s="62">
+        <v>9.9220000000000006</v>
+      </c>
+      <c r="H23" s="62">
+        <v>5.0389999999999997</v>
+      </c>
+      <c r="I23" s="62">
+        <v>5</v>
+      </c>
+      <c r="J23" s="62">
+        <v>4.9610000000000003</v>
+      </c>
+      <c r="K23" s="62">
+        <v>3.9E-2</v>
+      </c>
+      <c r="L23" s="16">
         <v>0</v>
       </c>
       <c r="M23" s="11"/>
@@ -2679,9 +2772,64 @@
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
       <c r="S23" s="5"/>
-    </row>
-    <row r="24" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U23" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="V23" s="62">
+        <v>4.9610000000000003</v>
+      </c>
+      <c r="W23" s="62">
+        <v>4.9219999999999997</v>
+      </c>
+      <c r="X23" s="62">
+        <v>3.9E-2</v>
+      </c>
+      <c r="Y23" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="62">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="AA23" s="62">
+        <v>-4.9610000000000003</v>
+      </c>
+      <c r="AB23" s="16">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
+      <c r="E24" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="68">
+        <f>F23+F25</f>
+        <v>10.000999999999999</v>
+      </c>
+      <c r="G24" s="68">
+        <f t="shared" ref="G24:L24" si="0">G23+G25</f>
+        <v>9.9619999999999997</v>
+      </c>
+      <c r="H24" s="68">
+        <f t="shared" si="0"/>
+        <v>5.0389999999999997</v>
+      </c>
+      <c r="I24" s="68">
+        <f t="shared" si="0"/>
+        <v>4.97</v>
+      </c>
+      <c r="J24" s="68">
+        <f t="shared" si="0"/>
+        <v>4.7610000000000001</v>
+      </c>
+      <c r="K24" s="68">
+        <f t="shared" si="0"/>
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="L24" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
@@ -2689,19 +2837,64 @@
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
       <c r="S24" s="5"/>
-    </row>
-    <row r="25" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U24" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="V24" s="62">
+        <f>V23+V25</f>
+        <v>4.9910000000000005</v>
+      </c>
+      <c r="W24" s="62">
+        <f t="shared" ref="W24:AB24" si="1">W23+W25</f>
+        <v>4.9419999999999993</v>
+      </c>
+      <c r="X24" s="62">
+        <f t="shared" si="1"/>
+        <v>3.9E-2</v>
+      </c>
+      <c r="Y24" s="62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="62">
+        <f t="shared" si="1"/>
+        <v>-4.9000000000000002E-2</v>
+      </c>
+      <c r="AA24" s="62">
+        <f t="shared" si="1"/>
+        <v>-4.9710000000000001</v>
+      </c>
+      <c r="AB24" s="16">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="4"/>
-      <c r="E25" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="62"/>
+      <c r="E25" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="G25" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="H25" s="17">
+        <v>0</v>
+      </c>
+      <c r="I25" s="17">
+        <v>-0.03</v>
+      </c>
+      <c r="J25" s="17">
+        <v>-0.2</v>
+      </c>
+      <c r="K25" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="L25" s="18">
+        <v>0</v>
+      </c>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
@@ -2709,33 +2902,33 @@
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
       <c r="S25" s="5"/>
-    </row>
-    <row r="26" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U25" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="V25" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="W25" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="X25" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="17">
+        <v>-0.01</v>
+      </c>
+      <c r="AA25" s="17">
+        <v>-0.01</v>
+      </c>
+      <c r="AB25" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
-      <c r="E26" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="24">
-        <v>1</v>
-      </c>
-      <c r="G26" s="24">
-        <v>2</v>
-      </c>
-      <c r="H26" s="24">
-        <v>3</v>
-      </c>
-      <c r="I26" s="24">
-        <v>4</v>
-      </c>
-      <c r="J26" s="24">
-        <v>5</v>
-      </c>
-      <c r="K26" s="24">
-        <v>6</v>
-      </c>
-      <c r="L26" s="25">
-        <v>7</v>
-      </c>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
@@ -2744,32 +2937,8 @@
       <c r="R26" s="11"/>
       <c r="S26" s="5"/>
     </row>
-    <row r="27" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
-      <c r="E27" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="19">
-        <v>0.03</v>
-      </c>
-      <c r="G27" s="19">
-        <v>0.02</v>
-      </c>
-      <c r="H27" s="19">
-        <v>0</v>
-      </c>
-      <c r="I27" s="19">
-        <v>0</v>
-      </c>
-      <c r="J27" s="19">
-        <v>-0.01</v>
-      </c>
-      <c r="K27" s="19">
-        <v>-0.01</v>
-      </c>
-      <c r="L27" s="20">
-        <v>0</v>
-      </c>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
@@ -2778,7 +2947,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="5"/>
     </row>
-    <row r="28" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
@@ -2789,7 +2958,7 @@
       <c r="R28" s="11"/>
       <c r="S28" s="5"/>
     </row>
-    <row r="29" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="4"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
@@ -2800,7 +2969,7 @@
       <c r="R29" s="11"/>
       <c r="S29" s="5"/>
     </row>
-    <row r="30" spans="3:19" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:28" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="6"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -2819,15 +2988,15 @@
       <c r="R30" s="7"/>
       <c r="S30" s="8"/>
     </row>
-    <row r="31" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="3:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="3:28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="3:28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="D18:R18"/>
     <mergeCell ref="D7:R16"/>
     <mergeCell ref="D5:R5"/>
     <mergeCell ref="E21:L21"/>
-    <mergeCell ref="E25:L25"/>
+    <mergeCell ref="U21:AB21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
